--- a/final_data_pipeline/output/322291_elec_options.xlsx
+++ b/final_data_pipeline/output/322291_elec_options.xlsx
@@ -1368,7 +1368,7 @@
         <v>68</v>
       </c>
       <c r="AD8">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE8">
         <v>8000</v>
@@ -1466,7 +1466,7 @@
         <v>68</v>
       </c>
       <c r="AD9">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE9">
         <v>8000</v>
@@ -1564,7 +1564,7 @@
         <v>68</v>
       </c>
       <c r="AD10">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE10">
         <v>8000</v>
@@ -1662,7 +1662,7 @@
         <v>68</v>
       </c>
       <c r="AD11">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="AE11">
         <v>8000</v>
@@ -1757,7 +1757,7 @@
         <v>68</v>
       </c>
       <c r="AD12">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="AE12">
         <v>8000</v>
@@ -1855,7 +1855,7 @@
         <v>68</v>
       </c>
       <c r="AD13">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="AE13">
         <v>8000</v>
@@ -3990,7 +3990,7 @@
         <v>68</v>
       </c>
       <c r="AD35">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE35">
         <v>8000</v>
@@ -4088,7 +4088,7 @@
         <v>68</v>
       </c>
       <c r="AD36">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE36">
         <v>8000</v>
@@ -4183,7 +4183,7 @@
         <v>68</v>
       </c>
       <c r="AD37">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE37">
         <v>8000</v>
@@ -4281,7 +4281,7 @@
         <v>68</v>
       </c>
       <c r="AD38">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE38">
         <v>8000</v>
@@ -4376,7 +4376,7 @@
         <v>68</v>
       </c>
       <c r="AD39">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE39">
         <v>8000</v>
@@ -4474,7 +4474,7 @@
         <v>68</v>
       </c>
       <c r="AD40">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE40">
         <v>8000</v>
